--- a/RMPP/RMPP_Unit08_Exe8.6C.xlsx
+++ b/RMPP/RMPP_Unit08_Exe8.6C.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3003C4E9B21422E391633CB43D225087AB66FD72" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_3003C4E9B21422E391633CB43D225087AB66FD72" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0866C236-A784-4D66-BB5E-7E08C26A65D0}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17055" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="0" windowWidth="22815" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUPER" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SUPER">SUPER!$A$1:$B$121</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>Sex</t>
   </si>
@@ -41,16 +47,94 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Difference in Means</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>A two-sample t-test (assuming equal variances) indicates that, on average, males earn about 8.68 more than females, with the test statistic providing strong evidence that this gap is unlikely to be due to chance (p &lt; 0.05). In other words, the data support the claim that the population mean income for males exceeds that of females.
+To justify the use of the equal-variances version of the t-test, the F-test for two-sample variances was performed. This procedure compares the variability of incomes in the male and female samples. Because the F-test shows no significant difference in how spread out the two distributions are, it is appropriate to combine the two variances into one pooled estimate.
+The validity of this analysis relies on a few key assumptions. Each sample should be independently drawn from its respective population, and the data should be suitable for a t-test (meaning the sample sizes are large enough or the underlying distributions are not heavily skewed). By confirming these conditions and using the F-test results, we can be more confident that the observed difference in average incomes is genuine and not simply due to random variation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -61,6 +145,17 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,11 +173,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -92,6 +207,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,10 +246,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>513682</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FEA1A3-DB50-138F-6834-8CB0F13CE5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="66675"/>
+          <a:ext cx="5342857" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,9 +354,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,26 +389,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,26 +424,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,13 +600,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -445,95 +624,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>COUNT(B2:B61)</f>
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <f>AVERAGE(B2:B61)</f>
+        <v>52.913333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <f>STDEV(B2:B61)</f>
+        <v>15.268561548207883</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="H6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>52.913333333333334</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44.233333333333348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>233.12897175141231</v>
+      </c>
+      <c r="J7" s="7">
+        <v>190.17581920903714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <f>COUNT(B62:B121)</f>
+        <v>60</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>60</v>
+      </c>
+      <c r="J8" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <f>AVERAGE(B62:B121)</f>
+        <v>44.233333333333348</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <f>STDEV(B62:B121)</f>
+        <v>13.790424910387538</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.2258602209314633</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.21824624019180686</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.5399566074040778</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,15 +841,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <f>2*I11</f>
+        <v>0.43649248038361371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,7 +864,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,15 +872,18 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,103 +891,193 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="H20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>52.913333333333334</v>
+      </c>
+      <c r="J20" s="7">
+        <v>44.233333333333348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7">
+        <v>233.12897175141231</v>
+      </c>
+      <c r="J21" s="7">
+        <v>190.17581920903714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>60</v>
+      </c>
+      <c r="J22" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="H23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="7">
+        <v>211.65239548022473</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="H25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>118</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="H26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.2679000007098575</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="2">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="H27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="7">
+        <v>7.0973521258426027E-4</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="H28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.6578695221106927</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.4194704251685205E-3</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.9802722492729716</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,15 +1085,22 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="2">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <f>I20-J20</f>
+        <v>8.6799999999999855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +1108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -709,7 +1116,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,135 +1124,260 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="H36" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="H37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="2">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="2">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="2">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="2">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="2">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="2">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="2">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="2">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,7 +1385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -861,7 +1393,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -869,7 +1401,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -877,7 +1409,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -885,7 +1417,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,7 +1425,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,7 +1433,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -909,7 +1441,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -917,7 +1449,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -925,7 +1457,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -933,7 +1465,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -941,7 +1473,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -949,7 +1481,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -957,7 +1489,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1497,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -973,7 +1505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -981,7 +1513,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -989,7 +1521,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1529,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1537,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1545,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1553,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1569,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1577,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1585,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1593,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1601,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1609,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1617,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1625,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1633,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1641,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1649,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1657,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1665,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1673,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1681,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1689,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1697,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1705,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1713,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1721,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1729,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1737,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1745,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -1221,7 +1753,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1769,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1777,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1793,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1801,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1809,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1817,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1825,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1833,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1841,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1849,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1857,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1865,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1873,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1881,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1897,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1905,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1913,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1921,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1929,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
@@ -1406,11 +1938,599 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H37:O51"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35747441-35BD-401B-9924-4B48945E515D}">
+  <dimension ref="A1:O121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>